--- a/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,89</t>
+          <t>10,48; 17,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,14</t>
+          <t>1,48; 5,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,84</t>
+          <t>4,63; 9,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,23; 18,31</t>
+          <t>8,58; 16,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 16,85</t>
+          <t>10,8; 18,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,57</t>
+          <t>4,19; 10,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,05</t>
+          <t>7,5; 13,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 24,43</t>
+          <t>11,74; 21,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,98</t>
+          <t>11,37; 16,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,41</t>
+          <t>3,22; 6,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,58</t>
+          <t>6,41; 10,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 19,49</t>
+          <t>10,9; 16,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 17,99</t>
+          <t>5,62; 10,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,01</t>
+          <t>2,03; 6,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,9</t>
+          <t>3,27; 7,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,19</t>
+          <t>10,23; 18,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,8; 18,22</t>
+          <t>10,17; 16,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,07</t>
+          <t>8,14; 14,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,71</t>
+          <t>8,72; 16,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 21,22</t>
+          <t>13,44; 24,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,68</t>
+          <t>8,64; 12,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,64</t>
+          <t>5,62; 9,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,69</t>
+          <t>6,61; 10,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,88</t>
+          <t>12,67; 19,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,87%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>58,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>60,91%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>47,76%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,16; 57,29</t>
+          <t>64,25; 77,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,64; 49,11</t>
+          <t>58,54; 71,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,84; 49,52</t>
+          <t>51,53; 65,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 43,1</t>
+          <t>41,4; 60,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,56; 56,95</t>
+          <t>65,7; 79,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,32; 50,34</t>
+          <t>51,71; 64,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,26; 54,62</t>
+          <t>56,84; 69,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 40,85</t>
+          <t>34,82; 53,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,37; 55,89</t>
+          <t>66,81; 76,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,47; 48,34</t>
+          <t>56,89; 66,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,31; 50,06</t>
+          <t>55,76; 65,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,94; 39,31</t>
+          <t>40,83; 54,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>17,13%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 17,99</t>
+          <t>17,47; 25,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,01</t>
+          <t>4,02; 8,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,9</t>
+          <t>10,58; 17,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,19</t>
+          <t>11,04; 20,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 18,22</t>
+          <t>16,54; 25,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,07</t>
+          <t>8,76; 15,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,71</t>
+          <t>11,66; 19,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 21,22</t>
+          <t>14,44; 25,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,68</t>
+          <t>17,98; 24,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,64</t>
+          <t>6,93; 11,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,69</t>
+          <t>11,97; 17,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,88</t>
+          <t>14,14; 20,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>12,07%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,89</t>
+          <t>6,04; 14,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,14</t>
+          <t>0,4; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,84</t>
+          <t>2,18; 6,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 18,31</t>
+          <t>8,65; 16,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 16,85</t>
+          <t>8,02; 17,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,57</t>
+          <t>2,08; 7,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,05</t>
+          <t>5,32; 12,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 24,43</t>
+          <t>7,6; 16,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,98</t>
+          <t>8,06; 14,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,41</t>
+          <t>1,45; 4,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,58</t>
+          <t>4,23; 8,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 19,49</t>
+          <t>9,42; 15,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>16,43%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 26,0</t>
+          <t>5,0; 11,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,31</t>
+          <t>3,12; 8,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 19,0</t>
+          <t>3,78; 10,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 19,91</t>
+          <t>9,66; 20,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 28,02</t>
+          <t>10,54; 18,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 22,89</t>
+          <t>10,56; 19,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,36</t>
+          <t>10,05; 18,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 24,07</t>
+          <t>14,94; 28,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,42; 26,13</t>
+          <t>8,67; 13,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 19,69</t>
+          <t>7,34; 12,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,0</t>
+          <t>7,68; 13,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 20,2</t>
+          <t>12,84; 21,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,29%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 25,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13,82; 18,31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 19,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 19,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22,78; 28,19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18,15; 23,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 24,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 24,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22,5; 26,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 19,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 20,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 20,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,25; 77,92</t>
+          <t>64,26; 77,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,54; 71,0</t>
+          <t>58,48; 71,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,53; 65,52</t>
+          <t>51,09; 66,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,4; 60,48</t>
+          <t>41,09; 60,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,7; 79,25</t>
+          <t>65,9; 79,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,71; 64,49</t>
+          <t>51,97; 64,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,84; 69,4</t>
+          <t>56,09; 69,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,82; 53,57</t>
+          <t>34,99; 53,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,81; 76,36</t>
+          <t>66,63; 76,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,89; 66,23</t>
+          <t>56,67; 66,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,76; 65,81</t>
+          <t>55,16; 65,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,83; 54,99</t>
+          <t>41,33; 54,72</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,47; 25,42</t>
+          <t>17,56; 26,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,96</t>
+          <t>3,77; 8,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 17,2</t>
+          <t>10,33; 17,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 20,06</t>
+          <t>11,18; 19,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 25,22</t>
+          <t>16,76; 24,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,64</t>
+          <t>8,83; 15,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,76</t>
+          <t>11,58; 19,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 25,24</t>
+          <t>14,67; 25,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,09</t>
+          <t>18,29; 23,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,16</t>
+          <t>6,72; 11,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 17,09</t>
+          <t>11,93; 17,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,6</t>
+          <t>13,99; 20,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,61</t>
+          <t>6,1; 13,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,4</t>
+          <t>0,4; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,91</t>
+          <t>2,13; 6,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 16,73</t>
+          <t>8,83; 17,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 17,2</t>
+          <t>8,39; 18,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,01</t>
+          <t>2,09; 7,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,37</t>
+          <t>5,05; 11,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 16,22</t>
+          <t>7,85; 17,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 14,11</t>
+          <t>8,13; 14,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,45</t>
+          <t>1,49; 4,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,4</t>
+          <t>4,03; 8,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 15,22</t>
+          <t>9,21; 14,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,16</t>
+          <t>4,97; 10,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,67</t>
+          <t>3,26; 8,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,09</t>
+          <t>4,04; 10,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 20,59</t>
+          <t>9,43; 20,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 18,17</t>
+          <t>10,49; 18,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 19,39</t>
+          <t>10,7; 19,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 18,84</t>
+          <t>10,05; 18,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 28,95</t>
+          <t>15,11; 30,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,55</t>
+          <t>8,44; 13,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,55</t>
+          <t>7,3; 12,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,38</t>
+          <t>7,72; 13,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,84; 21,47</t>
+          <t>12,91; 22,3</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,21; 25,96</t>
+          <t>21,03; 25,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,31</t>
+          <t>13,68; 18,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,41; 19,15</t>
+          <t>14,9; 19,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,57</t>
+          <t>14,01; 19,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,78; 28,19</t>
+          <t>22,63; 28,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,0</t>
+          <t>18,05; 22,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,52; 24,58</t>
+          <t>19,48; 24,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 24,19</t>
+          <t>16,89; 23,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,5; 26,15</t>
+          <t>22,46; 26,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 19,8</t>
+          <t>16,26; 19,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,56; 20,92</t>
+          <t>17,67; 21,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,52</t>
+          <t>16,0; 20,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>72,81%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58,49%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>63,02%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>45,27%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>70,88%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>65,11%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>58,64%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>51,08%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>72,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>58,49%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>63,02%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,76%</t>
+          <t>48,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,26; 77,4</t>
+          <t>65,85; 79,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,48; 71,64</t>
+          <t>51,23; 65,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,09; 66,25</t>
+          <t>56,43; 69,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,09; 60,89</t>
+          <t>35,87; 54,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,9; 79,83</t>
+          <t>63,78; 77,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,97; 64,68</t>
+          <t>58,31; 71,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,09; 69,06</t>
+          <t>51,55; 65,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,99; 53,5</t>
+          <t>42,49; 61,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,63; 76,36</t>
+          <t>66,77; 76,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,67; 66,32</t>
+          <t>56,69; 65,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,16; 65,15</t>
+          <t>55,6; 65,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,33; 54,72</t>
+          <t>42,48; 56,37</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>21,43%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>6,06%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>13,41%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,22%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,38%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>18,32%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 26,03</t>
+          <t>16,77; 25,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,91</t>
+          <t>8,53; 16,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 17,36</t>
+          <t>11,82; 19,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,68</t>
+          <t>15,7; 27,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 24,86</t>
+          <t>17,56; 25,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,89</t>
+          <t>3,96; 8,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 19,47</t>
+          <t>9,97; 16,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 25,23</t>
+          <t>11,85; 20,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,29; 23,77</t>
+          <t>18,13; 24,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,04</t>
+          <t>6,87; 11,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,04</t>
+          <t>11,66; 16,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 20,63</t>
+          <t>14,77; 22,58</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>9,68%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>1,26%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,36%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,94</t>
+          <t>7,95; 17,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,46</t>
+          <t>2,08; 7,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,85</t>
+          <t>4,96; 11,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,46</t>
+          <t>8,36; 17,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 18,32</t>
+          <t>6,46; 14,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,48</t>
+          <t>0,4; 3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,91</t>
+          <t>2,22; 6,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 17,0</t>
+          <t>9,23; 18,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,07</t>
+          <t>8,1; 14,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,56</t>
+          <t>1,47; 4,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,21</t>
+          <t>4,2; 8,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 14,94</t>
+          <t>9,9; 16,25</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,98%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,63%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>5,4%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>6,33%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,98%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,14%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 10,85</t>
+          <t>10,15; 18,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,73</t>
+          <t>10,57; 19,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,44</t>
+          <t>9,86; 19,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 20,05</t>
+          <t>17,86; 51,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 18,27</t>
+          <t>5,01; 10,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 19,84</t>
+          <t>3,03; 8,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 18,71</t>
+          <t>3,52; 10,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 30,16</t>
+          <t>10,78; 25,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,39</t>
+          <t>8,48; 13,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,62</t>
+          <t>7,42; 12,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 13,26</t>
+          <t>7,8; 13,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 22,3</t>
+          <t>15,73; 35,7</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>25,29%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>23,41%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>15,94%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>16,8%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>16,51%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>25,29%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,96%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>20,46%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,03; 25,98</t>
+          <t>22,8; 28,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,24</t>
+          <t>18,08; 22,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,38</t>
+          <t>19,51; 24,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 19,58</t>
+          <t>19,13; 35,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,63; 28,03</t>
+          <t>20,97; 26,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,05; 22,81</t>
+          <t>13,83; 18,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,48; 24,52</t>
+          <t>14,58; 19,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,68</t>
+          <t>15,33; 22,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,46; 26,2</t>
+          <t>22,42; 26,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 19,74</t>
+          <t>16,22; 19,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 21,03</t>
+          <t>17,64; 21,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 20,56</t>
+          <t>17,87; 25,8</t>
         </is>
       </c>
     </row>
